--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H2">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N2">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O2">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P2">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q2">
-        <v>1272.968499480036</v>
+        <v>23907.65187032275</v>
       </c>
       <c r="R2">
-        <v>1272.968499480036</v>
+        <v>215168.8668329048</v>
       </c>
       <c r="S2">
-        <v>0.1033339785689786</v>
+        <v>0.313865648556976</v>
       </c>
       <c r="T2">
-        <v>0.1033339785689786</v>
+        <v>0.313865648556976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H3">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P3">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q3">
-        <v>1211.265526649564</v>
+        <v>16723.29329774342</v>
       </c>
       <c r="R3">
-        <v>1211.265526649564</v>
+        <v>150509.6396796908</v>
       </c>
       <c r="S3">
-        <v>0.09832520288072656</v>
+        <v>0.2195475877503611</v>
       </c>
       <c r="T3">
-        <v>0.09832520288072656</v>
+        <v>0.2195475877503611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H4">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N4">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O4">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P4">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q4">
-        <v>1058.112278817363</v>
+        <v>17549.3122078782</v>
       </c>
       <c r="R4">
-        <v>1058.112278817363</v>
+        <v>157943.8098709038</v>
       </c>
       <c r="S4">
-        <v>0.08589289647587328</v>
+        <v>0.2303917711254589</v>
       </c>
       <c r="T4">
-        <v>0.08589289647587328</v>
+        <v>0.2303917711254589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H5">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I5">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J5">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.8242286012478</v>
+        <v>19.136526</v>
       </c>
       <c r="N5">
-        <v>18.8242286012478</v>
+        <v>57.409578</v>
       </c>
       <c r="O5">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="P5">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="Q5">
-        <v>522.6440413355203</v>
+        <v>7320.236082368557</v>
       </c>
       <c r="R5">
-        <v>522.6440413355203</v>
+        <v>65882.12474131701</v>
       </c>
       <c r="S5">
-        <v>0.04242594234549321</v>
+        <v>0.09610189482618427</v>
       </c>
       <c r="T5">
-        <v>0.04242594234549321</v>
+        <v>0.09610189482618424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H6">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N6">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O6">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P6">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q6">
-        <v>2584.768747486634</v>
+        <v>30.81103529892023</v>
       </c>
       <c r="R6">
-        <v>2584.768747486634</v>
+        <v>277.2993176902821</v>
       </c>
       <c r="S6">
-        <v>0.2098201475273335</v>
+        <v>0.0004044949972193538</v>
       </c>
       <c r="T6">
-        <v>0.2098201475273335</v>
+        <v>0.0004044949972193537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H7">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I7">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J7">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P7">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q7">
-        <v>2459.480560179276</v>
+        <v>21.552178478497</v>
       </c>
       <c r="R7">
-        <v>2459.480560179276</v>
+        <v>193.969606306473</v>
       </c>
       <c r="S7">
-        <v>0.1996498040605054</v>
+        <v>0.0002829424032381078</v>
       </c>
       <c r="T7">
-        <v>0.1996498040605054</v>
+        <v>0.0002829424032381078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H8">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I8">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J8">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N8">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O8">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P8">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q8">
-        <v>2148.502143404276</v>
+        <v>22.61671204021123</v>
       </c>
       <c r="R8">
-        <v>2148.502143404276</v>
+        <v>203.550408361901</v>
       </c>
       <c r="S8">
-        <v>0.1744059452630815</v>
+        <v>0.0002969178667662871</v>
       </c>
       <c r="T8">
-        <v>0.1744059452630815</v>
+        <v>0.0002969178667662871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4929823333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.478947</v>
+      </c>
+      <c r="I9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="J9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.136526</v>
+      </c>
+      <c r="N9">
+        <v>57.409578</v>
+      </c>
+      <c r="O9">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="P9">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="Q9">
+        <v>9.433969239374001</v>
+      </c>
+      <c r="R9">
+        <v>84.905723154366</v>
+      </c>
+      <c r="S9">
+        <v>0.0001238515137263754</v>
+      </c>
+      <c r="T9">
+        <v>0.0001238515137263754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H10">
+        <v>185.061926</v>
+      </c>
+      <c r="I10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>62.49926866666667</v>
+      </c>
+      <c r="N10">
+        <v>187.497806</v>
+      </c>
+      <c r="O10">
+        <v>0.364999568828264</v>
+      </c>
+      <c r="P10">
+        <v>0.364999568828264</v>
+      </c>
+      <c r="Q10">
+        <v>3855.411677681596</v>
+      </c>
+      <c r="R10">
+        <v>34698.70509913436</v>
+      </c>
+      <c r="S10">
+        <v>0.05061481124257885</v>
+      </c>
+      <c r="T10">
+        <v>0.05061481124257883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H11">
+        <v>185.061926</v>
+      </c>
+      <c r="I11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>43.717953</v>
+      </c>
+      <c r="N11">
+        <v>131.153859</v>
+      </c>
+      <c r="O11">
+        <v>0.2553155314530077</v>
+      </c>
+      <c r="P11">
+        <v>0.2553155314530077</v>
+      </c>
+      <c r="Q11">
+        <v>2696.842860985827</v>
+      </c>
+      <c r="R11">
+        <v>24271.58574887244</v>
+      </c>
+      <c r="S11">
+        <v>0.03540482930782027</v>
+      </c>
+      <c r="T11">
+        <v>0.03540482930782027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H12">
+        <v>185.061926</v>
+      </c>
+      <c r="I12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>45.87732766666667</v>
+      </c>
+      <c r="N12">
+        <v>137.631983</v>
+      </c>
+      <c r="O12">
+        <v>0.2679264121734788</v>
+      </c>
+      <c r="P12">
+        <v>0.2679264121734788</v>
+      </c>
+      <c r="Q12">
+        <v>2830.048872575474</v>
+      </c>
+      <c r="R12">
+        <v>25470.43985317926</v>
+      </c>
+      <c r="S12">
+        <v>0.03715359122915188</v>
+      </c>
+      <c r="T12">
+        <v>0.03715359122915187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H13">
+        <v>185.061926</v>
+      </c>
+      <c r="I13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.136526</v>
+      </c>
+      <c r="N13">
+        <v>57.409578</v>
+      </c>
+      <c r="O13">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="P13">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="Q13">
+        <v>1180.480786169692</v>
+      </c>
+      <c r="R13">
+        <v>10624.32707552723</v>
+      </c>
+      <c r="S13">
+        <v>0.01549764776440161</v>
+      </c>
+      <c r="T13">
+        <v>0.01549764776440161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="H9">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="I9">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="J9">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.8242286012478</v>
-      </c>
-      <c r="N9">
-        <v>18.8242286012478</v>
-      </c>
-      <c r="O9">
-        <v>0.1285720252235012</v>
-      </c>
-      <c r="P9">
-        <v>0.1285720252235012</v>
-      </c>
-      <c r="Q9">
-        <v>1061.231275287619</v>
-      </c>
-      <c r="R9">
-        <v>1061.231275287619</v>
-      </c>
-      <c r="S9">
-        <v>0.08614608287800797</v>
-      </c>
-      <c r="T9">
-        <v>0.08614608287800797</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.139687</v>
+      </c>
+      <c r="H14">
+        <v>0.419061</v>
+      </c>
+      <c r="I14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>62.49926866666667</v>
+      </c>
+      <c r="N14">
+        <v>187.497806</v>
+      </c>
+      <c r="O14">
+        <v>0.364999568828264</v>
+      </c>
+      <c r="P14">
+        <v>0.364999568828264</v>
+      </c>
+      <c r="Q14">
+        <v>8.730335342240668</v>
+      </c>
+      <c r="R14">
+        <v>78.57301808016601</v>
+      </c>
+      <c r="S14">
+        <v>0.0001146140314897962</v>
+      </c>
+      <c r="T14">
+        <v>0.0001146140314897962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.139687</v>
+      </c>
+      <c r="H15">
+        <v>0.419061</v>
+      </c>
+      <c r="I15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>43.717953</v>
+      </c>
+      <c r="N15">
+        <v>131.153859</v>
+      </c>
+      <c r="O15">
+        <v>0.2553155314530077</v>
+      </c>
+      <c r="P15">
+        <v>0.2553155314530077</v>
+      </c>
+      <c r="Q15">
+        <v>6.106829700711001</v>
+      </c>
+      <c r="R15">
+        <v>54.96146730639901</v>
+      </c>
+      <c r="S15">
+        <v>8.017199158818044E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.017199158818042E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.139687</v>
+      </c>
+      <c r="H16">
+        <v>0.419061</v>
+      </c>
+      <c r="I16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.87732766666667</v>
+      </c>
+      <c r="N16">
+        <v>137.631983</v>
+      </c>
+      <c r="O16">
+        <v>0.2679264121734788</v>
+      </c>
+      <c r="P16">
+        <v>0.2679264121734788</v>
+      </c>
+      <c r="Q16">
+        <v>6.408466269773668</v>
+      </c>
+      <c r="R16">
+        <v>57.67619642796301</v>
+      </c>
+      <c r="S16">
+        <v>8.413195210169602E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.413195210169601E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.139687</v>
+      </c>
+      <c r="H17">
+        <v>0.419061</v>
+      </c>
+      <c r="I17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.136526</v>
+      </c>
+      <c r="N17">
+        <v>57.409578</v>
+      </c>
+      <c r="O17">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="P17">
+        <v>0.1117584875452494</v>
+      </c>
+      <c r="Q17">
+        <v>2.673123907362</v>
+      </c>
+      <c r="R17">
+        <v>24.058115166258</v>
+      </c>
+      <c r="S17">
+        <v>3.509344093715907E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.509344093715906E-05</v>
       </c>
     </row>
   </sheetData>
